--- a/Code/Results/Cases/Case_3_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_179/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.06524462571203</v>
+        <v>11.42425601397388</v>
       </c>
       <c r="C2">
-        <v>8.589663829192066</v>
+        <v>12.57167033438009</v>
       </c>
       <c r="D2">
-        <v>5.23001263215578</v>
+        <v>5.221001886499133</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.4301834473135</v>
+        <v>24.68600013590373</v>
       </c>
       <c r="G2">
-        <v>21.49243709896929</v>
+        <v>29.42284862140498</v>
       </c>
       <c r="H2">
-        <v>8.796970536364595</v>
+        <v>14.54135836258936</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.80728445250276</v>
+        <v>7.853958302378344</v>
       </c>
       <c r="L2">
-        <v>7.120048073504472</v>
+        <v>11.07648354987046</v>
       </c>
       <c r="M2">
-        <v>10.08942376729038</v>
+        <v>14.32418650231542</v>
       </c>
       <c r="N2">
-        <v>12.6159175888698</v>
+        <v>19.43977965373681</v>
       </c>
       <c r="O2">
-        <v>14.21601551258273</v>
+        <v>22.20713456453913</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.1898479070661</v>
+        <v>11.18718396961886</v>
       </c>
       <c r="C3">
-        <v>8.6675640809193</v>
+        <v>12.60011006660975</v>
       </c>
       <c r="D3">
-        <v>5.033451310658332</v>
+        <v>5.148500111879006</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.17577499704401</v>
+        <v>24.71898460247428</v>
       </c>
       <c r="G3">
-        <v>21.22571571310314</v>
+        <v>29.48018292246616</v>
       </c>
       <c r="H3">
-        <v>8.847868074327421</v>
+        <v>14.58168645098317</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.26656289691466</v>
+        <v>7.602609276690671</v>
       </c>
       <c r="L3">
-        <v>7.013923156548048</v>
+        <v>11.08405700405857</v>
       </c>
       <c r="M3">
-        <v>9.745657407019435</v>
+        <v>14.28926818522747</v>
       </c>
       <c r="N3">
-        <v>12.79526048242756</v>
+        <v>19.495225239082</v>
       </c>
       <c r="O3">
-        <v>14.22544598428779</v>
+        <v>22.2708171717873</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.62007289969618</v>
+        <v>11.04102812975981</v>
       </c>
       <c r="C4">
-        <v>8.717209997470889</v>
+        <v>12.61854715414623</v>
       </c>
       <c r="D4">
-        <v>4.9080649930745</v>
+        <v>5.102750786591749</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.03151727736151</v>
+        <v>24.7449236454132</v>
       </c>
       <c r="G4">
-        <v>21.08131599950812</v>
+        <v>29.52332812276712</v>
       </c>
       <c r="H4">
-        <v>8.883643196674992</v>
+        <v>14.60841699478755</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.918774101681828</v>
+        <v>7.442433046835633</v>
       </c>
       <c r="L4">
-        <v>6.951466722753915</v>
+        <v>11.09038744588346</v>
       </c>
       <c r="M4">
-        <v>9.53217996872826</v>
+        <v>14.2699353471147</v>
       </c>
       <c r="N4">
-        <v>12.90809392754125</v>
+        <v>19.53089529311212</v>
       </c>
       <c r="O4">
-        <v>14.24136560672769</v>
+        <v>22.31394662262939</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.37972805434677</v>
+        <v>10.98140415981395</v>
       </c>
       <c r="C5">
-        <v>8.737900293397391</v>
+        <v>12.62630625269818</v>
       </c>
       <c r="D5">
-        <v>4.855829611241659</v>
+        <v>5.083807582411389</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.97573865863585</v>
+        <v>24.75692275821621</v>
       </c>
       <c r="G5">
-        <v>21.02727136326931</v>
+        <v>29.54290241891097</v>
       </c>
       <c r="H5">
-        <v>8.899327755014589</v>
+        <v>14.61980530642883</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.773161715036855</v>
+        <v>7.375748190972452</v>
       </c>
       <c r="L5">
-        <v>6.926712771129558</v>
+        <v>11.09339028974702</v>
       </c>
       <c r="M5">
-        <v>9.444713930817629</v>
+        <v>14.26259278436619</v>
       </c>
       <c r="N5">
-        <v>12.95477263762339</v>
+        <v>19.54584120718376</v>
       </c>
       <c r="O5">
-        <v>14.25031851977666</v>
+        <v>22.33253425626172</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.33932514758527</v>
+        <v>10.97150228333958</v>
       </c>
       <c r="C6">
-        <v>8.741363717470566</v>
+        <v>12.62760951271201</v>
       </c>
       <c r="D6">
-        <v>4.847088469289991</v>
+        <v>5.080644259478302</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.96665818465411</v>
+        <v>24.75900145040315</v>
       </c>
       <c r="G6">
-        <v>21.01858475170896</v>
+        <v>29.54627289221888</v>
       </c>
       <c r="H6">
-        <v>8.901998054036275</v>
+        <v>14.62172625633905</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.748750985380731</v>
+        <v>7.364591781870179</v>
       </c>
       <c r="L6">
-        <v>6.922645002262717</v>
+        <v>11.0939144818832</v>
       </c>
       <c r="M6">
-        <v>9.430165802059713</v>
+        <v>14.2614060771456</v>
       </c>
       <c r="N6">
-        <v>12.96256620271228</v>
+        <v>19.54834776624432</v>
       </c>
       <c r="O6">
-        <v>14.2519516591502</v>
+        <v>22.33568181665123</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.61686460537425</v>
+        <v>11.04022416667223</v>
       </c>
       <c r="C7">
-        <v>8.71748717106974</v>
+        <v>12.61865079978831</v>
       </c>
       <c r="D7">
-        <v>4.907365083047474</v>
+        <v>5.102496513032614</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.03075285396242</v>
+        <v>24.74507968663029</v>
       </c>
       <c r="G7">
-        <v>21.08056780845521</v>
+        <v>29.52358404870098</v>
       </c>
       <c r="H7">
-        <v>8.883850287324412</v>
+        <v>14.60856857530435</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.916825932109523</v>
+        <v>7.441539345996439</v>
       </c>
       <c r="L7">
-        <v>6.951130036159727</v>
+        <v>11.09042622928783</v>
       </c>
       <c r="M7">
-        <v>9.531002101063994</v>
+        <v>14.26983414617172</v>
       </c>
       <c r="N7">
-        <v>12.90872060641235</v>
+        <v>19.53109519702529</v>
       </c>
       <c r="O7">
-        <v>14.24147647420044</v>
+        <v>22.31419320545674</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.77008260699237</v>
+        <v>11.34268667626639</v>
       </c>
       <c r="C8">
-        <v>8.616148872074078</v>
+        <v>12.58127440107127</v>
       </c>
       <c r="D8">
-        <v>5.163236445377463</v>
+        <v>5.196265097045822</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.33998781147871</v>
+        <v>24.69619240628277</v>
       </c>
       <c r="G8">
-        <v>21.39641441262298</v>
+        <v>29.44096655404044</v>
       </c>
       <c r="H8">
-        <v>8.813561702669018</v>
+        <v>14.55485501301343</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.62416426507405</v>
+        <v>7.768539971895626</v>
       </c>
       <c r="L8">
-        <v>7.082905789686906</v>
+        <v>11.0787465236016</v>
       </c>
       <c r="M8">
-        <v>9.971467971506197</v>
+        <v>14.31171296758119</v>
       </c>
       <c r="N8">
-        <v>12.67720059062801</v>
+        <v>19.4585604581819</v>
       </c>
       <c r="O8">
-        <v>14.21711599959723</v>
+        <v>22.22825580269688</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.77728002705814</v>
+        <v>11.92752164338284</v>
       </c>
       <c r="C9">
-        <v>8.431694591391844</v>
+        <v>12.5156849084152</v>
       </c>
       <c r="D9">
-        <v>5.626170204171309</v>
+        <v>5.369939286217389</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.04063875074134</v>
+        <v>24.64547636400982</v>
       </c>
       <c r="G9">
-        <v>22.17176188918383</v>
+        <v>29.34214915970795</v>
       </c>
       <c r="H9">
-        <v>8.713095956569923</v>
+        <v>14.46513231861802</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.88318397418107</v>
+        <v>8.361118691727416</v>
       </c>
       <c r="L9">
-        <v>7.361945444933617</v>
+        <v>11.06914510689481</v>
       </c>
       <c r="M9">
-        <v>10.81090137074907</v>
+        <v>14.41028204409235</v>
       </c>
       <c r="N9">
-        <v>12.24402179080963</v>
+        <v>19.32917038636144</v>
       </c>
       <c r="O9">
-        <v>14.25331294696911</v>
+        <v>22.09173042808853</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.09956957388278</v>
+        <v>12.34756248906867</v>
       </c>
       <c r="C10">
-        <v>8.304691447621851</v>
+        <v>12.4721512134092</v>
       </c>
       <c r="D10">
-        <v>5.940868497576138</v>
+        <v>5.490777326150647</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.61154378093612</v>
+        <v>24.63575609069876</v>
       </c>
       <c r="G10">
-        <v>22.83848308858437</v>
+        <v>29.30827615582562</v>
       </c>
       <c r="H10">
-        <v>8.664177877261794</v>
+        <v>14.40871083220812</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.72730403255203</v>
+        <v>8.7641566720346</v>
       </c>
       <c r="L10">
-        <v>7.57835628239953</v>
+        <v>11.07015520332941</v>
       </c>
       <c r="M10">
-        <v>11.4065960864206</v>
+        <v>14.49233439795743</v>
       </c>
       <c r="N10">
-        <v>11.93740924812615</v>
+        <v>19.24186577333615</v>
       </c>
       <c r="O10">
-        <v>14.3359161841287</v>
+        <v>22.0109792311403</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.6685940358737</v>
+        <v>12.53566293304448</v>
       </c>
       <c r="C11">
-        <v>8.248724084403706</v>
+        <v>12.45334835907614</v>
       </c>
       <c r="D11">
-        <v>6.078230938460572</v>
+        <v>5.544175230982387</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.88304225846536</v>
+        <v>24.63730607025513</v>
       </c>
       <c r="G11">
-        <v>23.16299200943328</v>
+        <v>29.30130239757334</v>
       </c>
       <c r="H11">
-        <v>8.647810274079179</v>
+        <v>14.38510174910166</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.09339255461733</v>
+        <v>8.940027921644349</v>
       </c>
       <c r="L11">
-        <v>7.679024164502686</v>
+        <v>11.072353866996</v>
       </c>
       <c r="M11">
-        <v>11.67194409619756</v>
+        <v>14.53166259542863</v>
       </c>
       <c r="N11">
-        <v>11.8002078871393</v>
+        <v>19.20381716104755</v>
       </c>
       <c r="O11">
-        <v>14.38665102121161</v>
+        <v>21.97849821437208</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.87944324293011</v>
+        <v>12.60639459954856</v>
       </c>
       <c r="C12">
-        <v>8.227787537220747</v>
+        <v>12.44637144936119</v>
       </c>
       <c r="D12">
-        <v>6.129394414262928</v>
+        <v>5.564161136684841</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.98750610948884</v>
+        <v>24.63874999142309</v>
       </c>
       <c r="G12">
-        <v>23.28891718869462</v>
+        <v>29.29987526782716</v>
       </c>
       <c r="H12">
-        <v>8.642500103229109</v>
+        <v>14.37645716739137</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.22942727806039</v>
+        <v>9.005518662145116</v>
       </c>
       <c r="L12">
-        <v>7.717442244030565</v>
+        <v>11.07343529971913</v>
       </c>
       <c r="M12">
-        <v>11.77153881235578</v>
+        <v>14.54683473218772</v>
       </c>
       <c r="N12">
-        <v>11.74856012885749</v>
+        <v>19.18964762485944</v>
       </c>
       <c r="O12">
-        <v>14.40783334861283</v>
+        <v>21.96681070704014</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.83423821107445</v>
+        <v>12.59118447395792</v>
       </c>
       <c r="C13">
-        <v>8.232285207396339</v>
+        <v>12.44786768679931</v>
       </c>
       <c r="D13">
-        <v>6.118413640864783</v>
+        <v>5.559867387366432</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.96493511303942</v>
+        <v>24.63840093735704</v>
       </c>
       <c r="G13">
-        <v>23.26166196493408</v>
+        <v>29.30012864548114</v>
       </c>
       <c r="H13">
-        <v>8.64360357791718</v>
+        <v>14.37830578576286</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.20024542196681</v>
+        <v>8.991463819787251</v>
       </c>
       <c r="L13">
-        <v>7.709155343966638</v>
+        <v>11.07319134743368</v>
       </c>
       <c r="M13">
-        <v>11.75012985058823</v>
+        <v>14.54355485368512</v>
       </c>
       <c r="N13">
-        <v>11.75967005753742</v>
+        <v>19.19268869023488</v>
       </c>
       <c r="O13">
-        <v>14.40318251841335</v>
+        <v>21.96930057536848</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.68603322252469</v>
+        <v>12.54149243102081</v>
       </c>
       <c r="C14">
-        <v>8.246996485579944</v>
+        <v>12.45277149550055</v>
       </c>
       <c r="D14">
-        <v>6.082457376667869</v>
+        <v>5.545824235879773</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.89160367724235</v>
+        <v>24.63740769965293</v>
       </c>
       <c r="G14">
-        <v>23.17329109838148</v>
+        <v>29.30116066198772</v>
       </c>
       <c r="H14">
-        <v>8.64735536554511</v>
+        <v>14.38438462960112</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.10463631019861</v>
+        <v>8.945438264169665</v>
       </c>
       <c r="L14">
-        <v>7.682179008253641</v>
+        <v>11.07243785742356</v>
       </c>
       <c r="M14">
-        <v>11.68015598544354</v>
+        <v>14.53290526656409</v>
       </c>
       <c r="N14">
-        <v>11.79595275310551</v>
+        <v>19.20264664773589</v>
       </c>
       <c r="O14">
-        <v>14.38835378183518</v>
+        <v>21.97752439970413</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.59465201318103</v>
+        <v>12.51098779061276</v>
       </c>
       <c r="C15">
-        <v>8.256040965818611</v>
+        <v>12.45579386723137</v>
       </c>
       <c r="D15">
-        <v>6.060321563320105</v>
+        <v>5.53719158191026</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.84690007181426</v>
+        <v>24.63691085405711</v>
       </c>
       <c r="G15">
-        <v>23.11955692988019</v>
+        <v>29.30195086431683</v>
       </c>
       <c r="H15">
-        <v>8.649770330086731</v>
+        <v>14.38814659609254</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.04573454884681</v>
+        <v>8.917101084685218</v>
       </c>
       <c r="L15">
-        <v>7.665693300524421</v>
+        <v>11.07200869118488</v>
       </c>
       <c r="M15">
-        <v>11.63717740197543</v>
+        <v>14.52641821499041</v>
       </c>
       <c r="N15">
-        <v>11.81821637039347</v>
+        <v>19.20877723306828</v>
       </c>
       <c r="O15">
-        <v>14.37952959448336</v>
+        <v>21.98264149642613</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.06173243450834</v>
+        <v>12.33520369887637</v>
       </c>
       <c r="C16">
-        <v>8.308385170926631</v>
+        <v>12.47340011250087</v>
       </c>
       <c r="D16">
-        <v>5.931773191419091</v>
+        <v>5.487255264682241</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.59403441985094</v>
+        <v>24.63577482712965</v>
       </c>
       <c r="G16">
-        <v>22.81770192265768</v>
+        <v>29.30890172689434</v>
       </c>
       <c r="H16">
-        <v>8.665369490233386</v>
+        <v>14.41029512510827</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.70301706603139</v>
+        <v>8.752509758779125</v>
       </c>
       <c r="L16">
-        <v>7.571820198203241</v>
+        <v>11.07004640848347</v>
       </c>
       <c r="M16">
-        <v>11.38913478063903</v>
+        <v>14.48980377717797</v>
       </c>
       <c r="N16">
-        <v>11.94641982083353</v>
+        <v>19.2443857902469</v>
       </c>
       <c r="O16">
-        <v>14.33287204740166</v>
+        <v>22.01318759208531</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.72651284970165</v>
+        <v>12.2265520961272</v>
       </c>
       <c r="C17">
-        <v>8.340957486378073</v>
+        <v>12.48445688667707</v>
       </c>
       <c r="D17">
-        <v>5.851413752759452</v>
+        <v>5.456212034360445</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.44190018234664</v>
+        <v>24.63660637126891</v>
       </c>
       <c r="G17">
-        <v>22.63795317606566</v>
+        <v>29.31532711268135</v>
       </c>
       <c r="H17">
-        <v>8.676475608263722</v>
+        <v>14.42440933812069</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.48816793193599</v>
+        <v>8.649599326167408</v>
       </c>
       <c r="L17">
-        <v>7.514785165053323</v>
+        <v>11.06928720823174</v>
       </c>
       <c r="M17">
-        <v>11.23546729502729</v>
+        <v>14.46784886678062</v>
       </c>
       <c r="N17">
-        <v>12.02563794612339</v>
+        <v>19.26665663711804</v>
       </c>
       <c r="O17">
-        <v>14.30767559989125</v>
+        <v>22.03301652153522</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.53064244079628</v>
+        <v>12.16378212427408</v>
       </c>
       <c r="C18">
-        <v>8.359862468569936</v>
+        <v>12.49091068998166</v>
       </c>
       <c r="D18">
-        <v>5.804648567410401</v>
+        <v>5.438209325011503</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.35550914715714</v>
+        <v>24.63764688945655</v>
       </c>
       <c r="G18">
-        <v>22.53656451442467</v>
+        <v>29.31981680457212</v>
       </c>
       <c r="H18">
-        <v>8.683414949015352</v>
+        <v>14.43272111684464</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.36290766566394</v>
+        <v>8.589706310664349</v>
       </c>
       <c r="L18">
-        <v>7.482190521661258</v>
+        <v>11.0690143170624</v>
       </c>
       <c r="M18">
-        <v>11.14655514559919</v>
+        <v>14.45540996848417</v>
       </c>
       <c r="N18">
-        <v>12.07141782080724</v>
+        <v>19.27962317667666</v>
       </c>
       <c r="O18">
-        <v>14.2944172718772</v>
+        <v>22.04482188005134</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.46379702723727</v>
+        <v>12.14248400568675</v>
       </c>
       <c r="C19">
-        <v>8.366292695620048</v>
+        <v>12.49311204085715</v>
       </c>
       <c r="D19">
-        <v>5.788721794849923</v>
+        <v>5.432088861186936</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.32645095814275</v>
+        <v>24.63809579915119</v>
       </c>
       <c r="G19">
-        <v>22.50257936734828</v>
+        <v>29.32147326759582</v>
       </c>
       <c r="H19">
-        <v>8.685857949801727</v>
+        <v>14.43556860837045</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.32020808435733</v>
+        <v>8.569308138055376</v>
       </c>
       <c r="L19">
-        <v>7.471191354764175</v>
+        <v>11.06895008615982</v>
       </c>
       <c r="M19">
-        <v>11.11636306445324</v>
+        <v>14.45123108322518</v>
       </c>
       <c r="N19">
-        <v>12.08695574585677</v>
+        <v>19.28404040963335</v>
       </c>
       <c r="O19">
-        <v>14.2901377519322</v>
+        <v>22.04888769606495</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.76251402766156</v>
+        <v>12.238147374186</v>
       </c>
       <c r="C20">
-        <v>8.337472507910451</v>
+        <v>12.48327012512799</v>
       </c>
       <c r="D20">
-        <v>5.860024662939158</v>
+        <v>5.459531965433571</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.45798028568217</v>
+        <v>24.63645967344871</v>
       </c>
       <c r="G20">
-        <v>22.65688098671516</v>
+        <v>29.31456093745904</v>
       </c>
       <c r="H20">
-        <v>8.675235979119561</v>
+        <v>14.42288681457639</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.51121352309826</v>
+        <v>8.660627190653111</v>
       </c>
       <c r="L20">
-        <v>7.520835028304805</v>
+        <v>11.06935108432109</v>
       </c>
       <c r="M20">
-        <v>11.25188055706724</v>
+        <v>14.47016650571878</v>
       </c>
       <c r="N20">
-        <v>12.01718285989547</v>
+        <v>19.2642696324359</v>
       </c>
       <c r="O20">
-        <v>14.31022951692259</v>
+        <v>22.03086426461773</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.72968986581963</v>
+        <v>12.55610223365534</v>
       </c>
       <c r="C21">
-        <v>8.242668471449404</v>
+        <v>12.45132724298861</v>
       </c>
       <c r="D21">
-        <v>6.093041882623595</v>
+        <v>5.549955487266259</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.91309837455125</v>
+        <v>24.63767619655907</v>
       </c>
       <c r="G21">
-        <v>23.1991653640068</v>
+        <v>29.30082459368679</v>
       </c>
       <c r="H21">
-        <v>8.646228939458792</v>
+        <v>14.38259110295087</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.13278957563946</v>
+        <v>8.958987398345343</v>
       </c>
       <c r="L21">
-        <v>7.690094715271874</v>
+        <v>11.07265243260433</v>
       </c>
       <c r="M21">
-        <v>11.70073362863023</v>
+        <v>14.53602579505739</v>
       </c>
       <c r="N21">
-        <v>11.78528746859493</v>
+        <v>19.19971528549216</v>
       </c>
       <c r="O21">
-        <v>14.39265526329496</v>
+        <v>21.97509223858161</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.33484081032749</v>
+        <v>12.76097293564842</v>
       </c>
       <c r="C22">
-        <v>8.182205740246108</v>
+        <v>12.43128584767359</v>
       </c>
       <c r="D22">
-        <v>6.24035523525303</v>
+        <v>5.607680617634469</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.22016028463632</v>
+        <v>24.64346513724238</v>
       </c>
       <c r="G22">
-        <v>23.57129262838626</v>
+        <v>29.29892103960461</v>
       </c>
       <c r="H22">
-        <v>8.632466711154832</v>
+        <v>14.35797880797225</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.52389537274597</v>
+        <v>9.147512811363105</v>
       </c>
       <c r="L22">
-        <v>7.802439105822762</v>
+        <v>11.0762598582903</v>
       </c>
       <c r="M22">
-        <v>11.98888808861894</v>
+        <v>14.58069303372177</v>
       </c>
       <c r="N22">
-        <v>11.63551218785963</v>
+        <v>19.15891584224621</v>
       </c>
       <c r="O22">
-        <v>14.45804307021401</v>
+        <v>21.94221152115297</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.01431183074909</v>
+        <v>12.65191962222375</v>
       </c>
       <c r="C23">
-        <v>8.214339752010472</v>
+        <v>12.44190609901658</v>
       </c>
       <c r="D23">
-        <v>6.162192251352176</v>
+        <v>5.576999914242315</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.05541008219839</v>
+        <v>24.63991926995623</v>
       </c>
       <c r="G23">
-        <v>23.37106603298057</v>
+        <v>29.29928974052822</v>
       </c>
       <c r="H23">
-        <v>8.639322384642712</v>
+        <v>14.37095723159951</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.31654397295679</v>
+        <v>9.047495237862526</v>
       </c>
       <c r="L23">
-        <v>7.742328215621816</v>
+        <v>11.07420229291026</v>
       </c>
       <c r="M23">
-        <v>11.83559261019791</v>
+        <v>14.55670755406507</v>
       </c>
       <c r="N23">
-        <v>11.71529398192254</v>
+        <v>19.18056437170883</v>
       </c>
       <c r="O23">
-        <v>14.42206539832481</v>
+        <v>21.95943373982329</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.74624770439871</v>
+        <v>12.2329060927599</v>
       </c>
       <c r="C24">
-        <v>8.339047509779903</v>
+        <v>12.48380635747327</v>
       </c>
       <c r="D24">
-        <v>5.856133430268516</v>
+        <v>5.458031508415474</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.45070712572481</v>
+        <v>24.6365242434231</v>
       </c>
       <c r="G24">
-        <v>22.64831764503482</v>
+        <v>29.31490484695641</v>
       </c>
       <c r="H24">
-        <v>8.675794692110118</v>
+        <v>14.42357453278864</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.50080003141352</v>
+        <v>8.655643759489994</v>
       </c>
       <c r="L24">
-        <v>7.518099274325284</v>
+        <v>11.06932169630894</v>
       </c>
       <c r="M24">
-        <v>11.24446188042607</v>
+        <v>14.46911812964256</v>
       </c>
       <c r="N24">
-        <v>12.02100466678281</v>
+        <v>19.26534829026863</v>
       </c>
       <c r="O24">
-        <v>14.30907107375657</v>
+        <v>22.03183603710476</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.26123349407408</v>
+        <v>11.7706833836422</v>
       </c>
       <c r="C25">
-        <v>8.480085718228372</v>
+        <v>12.53260810196843</v>
       </c>
       <c r="D25">
-        <v>5.505289055289913</v>
+        <v>5.324105480877705</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.84111223244046</v>
+        <v>24.65435879514571</v>
       </c>
       <c r="G25">
-        <v>21.94504585307401</v>
+        <v>29.36209224647967</v>
       </c>
       <c r="H25">
-        <v>8.736060820411703</v>
+        <v>14.48773546068671</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.55663329005498</v>
+        <v>8.206315534149374</v>
       </c>
       <c r="L25">
-        <v>7.284368059072712</v>
+        <v>11.07032263498115</v>
       </c>
       <c r="M25">
-        <v>10.58710172210348</v>
+        <v>14.38189479693248</v>
       </c>
       <c r="N25">
-        <v>12.35908418868811</v>
+        <v>19.36280597080369</v>
       </c>
       <c r="O25">
-        <v>14.23402745590711</v>
+        <v>22.12523341583143</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_179/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.42425601397388</v>
+        <v>13.06524462571205</v>
       </c>
       <c r="C2">
-        <v>12.57167033438009</v>
+        <v>8.589663829192071</v>
       </c>
       <c r="D2">
-        <v>5.221001886499133</v>
+        <v>5.230012632155845</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.68600013590373</v>
+        <v>17.43018344731338</v>
       </c>
       <c r="G2">
-        <v>29.42284862140498</v>
+        <v>21.49243709896917</v>
       </c>
       <c r="H2">
-        <v>14.54135836258936</v>
+        <v>8.796970536364535</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.853958302378344</v>
+        <v>10.80728445250278</v>
       </c>
       <c r="L2">
-        <v>11.07648354987046</v>
+        <v>7.120048073504477</v>
       </c>
       <c r="M2">
-        <v>14.32418650231542</v>
+        <v>10.08942376729038</v>
       </c>
       <c r="N2">
-        <v>19.43977965373681</v>
+        <v>12.61591758886974</v>
       </c>
       <c r="O2">
-        <v>22.20713456453913</v>
+        <v>14.21601551258265</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.18718396961886</v>
+        <v>12.18984790706613</v>
       </c>
       <c r="C3">
-        <v>12.60011006660975</v>
+        <v>8.667564080919433</v>
       </c>
       <c r="D3">
-        <v>5.148500111879006</v>
+        <v>5.033451310658384</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.71898460247428</v>
+        <v>17.17577499704386</v>
       </c>
       <c r="G3">
-        <v>29.48018292246616</v>
+        <v>21.22571571310294</v>
       </c>
       <c r="H3">
-        <v>14.58168645098317</v>
+        <v>8.847868074327357</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.602609276690671</v>
+        <v>10.2665628969147</v>
       </c>
       <c r="L3">
-        <v>11.08405700405857</v>
+        <v>7.013923156548092</v>
       </c>
       <c r="M3">
-        <v>14.28926818522747</v>
+        <v>9.745657407019461</v>
       </c>
       <c r="N3">
-        <v>19.495225239082</v>
+        <v>12.79526048242749</v>
       </c>
       <c r="O3">
-        <v>22.2708171717873</v>
+        <v>14.22544598428767</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.04102812975981</v>
+        <v>11.62007289969618</v>
       </c>
       <c r="C4">
-        <v>12.61854715414623</v>
+        <v>8.717209997471292</v>
       </c>
       <c r="D4">
-        <v>5.102750786591749</v>
+        <v>4.908064993074535</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.7449236454132</v>
+        <v>17.03151727736139</v>
       </c>
       <c r="G4">
-        <v>29.52332812276712</v>
+        <v>21.08131599950813</v>
       </c>
       <c r="H4">
-        <v>14.60841699478755</v>
+        <v>8.883643196674946</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.442433046835633</v>
+        <v>9.918774101681874</v>
       </c>
       <c r="L4">
-        <v>11.09038744588346</v>
+        <v>6.951466722753998</v>
       </c>
       <c r="M4">
-        <v>14.2699353471147</v>
+        <v>9.532179968728299</v>
       </c>
       <c r="N4">
-        <v>19.53089529311212</v>
+        <v>12.90809392754122</v>
       </c>
       <c r="O4">
-        <v>22.31394662262939</v>
+        <v>14.24136560672762</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.98140415981395</v>
+        <v>11.37972805434675</v>
       </c>
       <c r="C5">
-        <v>12.62630625269818</v>
+        <v>8.737900293397793</v>
       </c>
       <c r="D5">
-        <v>5.083807582411389</v>
+        <v>4.855829611241669</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.75692275821621</v>
+        <v>16.97573865863577</v>
       </c>
       <c r="G5">
-        <v>29.54290241891097</v>
+        <v>21.02727136326898</v>
       </c>
       <c r="H5">
-        <v>14.61980530642883</v>
+        <v>8.899327755014646</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.375748190972452</v>
+        <v>9.77316171503694</v>
       </c>
       <c r="L5">
-        <v>11.09339028974702</v>
+        <v>6.926712771129488</v>
       </c>
       <c r="M5">
-        <v>14.26259278436619</v>
+        <v>9.444713930817596</v>
       </c>
       <c r="N5">
-        <v>19.54584120718376</v>
+        <v>12.95477263762339</v>
       </c>
       <c r="O5">
-        <v>22.33253425626172</v>
+        <v>14.25031851977659</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.97150228333958</v>
+        <v>11.33932514758526</v>
       </c>
       <c r="C6">
-        <v>12.62760951271201</v>
+        <v>8.741363717470971</v>
       </c>
       <c r="D6">
-        <v>5.080644259478302</v>
+        <v>4.847088469289861</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.75900145040315</v>
+        <v>16.96665818465407</v>
       </c>
       <c r="G6">
-        <v>29.54627289221888</v>
+        <v>21.01858475170869</v>
       </c>
       <c r="H6">
-        <v>14.62172625633905</v>
+        <v>8.901998054036277</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.364591781870179</v>
+        <v>9.748750985380807</v>
       </c>
       <c r="L6">
-        <v>11.0939144818832</v>
+        <v>6.922645002262663</v>
       </c>
       <c r="M6">
-        <v>14.2614060771456</v>
+        <v>9.43016580205969</v>
       </c>
       <c r="N6">
-        <v>19.54834776624432</v>
+        <v>12.96256620271232</v>
       </c>
       <c r="O6">
-        <v>22.33568181665123</v>
+        <v>14.25195165915012</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.04022416667223</v>
+        <v>11.61686460537423</v>
       </c>
       <c r="C7">
-        <v>12.61865079978831</v>
+        <v>8.717487171069742</v>
       </c>
       <c r="D7">
-        <v>5.102496513032614</v>
+        <v>4.907365083047271</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.74507968663029</v>
+        <v>17.03075285396249</v>
       </c>
       <c r="G7">
-        <v>29.52358404870098</v>
+        <v>21.08056780845518</v>
       </c>
       <c r="H7">
-        <v>14.60856857530435</v>
+        <v>8.883850287324398</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.441539345996439</v>
+        <v>9.916825932109484</v>
       </c>
       <c r="L7">
-        <v>11.09042622928783</v>
+        <v>6.951130036159729</v>
       </c>
       <c r="M7">
-        <v>14.26983414617172</v>
+        <v>9.531002101064008</v>
       </c>
       <c r="N7">
-        <v>19.53109519702529</v>
+        <v>12.90872060641232</v>
       </c>
       <c r="O7">
-        <v>22.31419320545674</v>
+        <v>14.24147647420043</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.34268667626639</v>
+        <v>12.77008260699242</v>
       </c>
       <c r="C8">
-        <v>12.58127440107127</v>
+        <v>8.616148872073937</v>
       </c>
       <c r="D8">
-        <v>5.196265097045822</v>
+        <v>5.163236445377562</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.69619240628277</v>
+        <v>17.33998781147866</v>
       </c>
       <c r="G8">
-        <v>29.44096655404044</v>
+        <v>21.39641441262296</v>
       </c>
       <c r="H8">
-        <v>14.55485501301343</v>
+        <v>8.813561702669018</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.768539971895626</v>
+        <v>10.62416426507406</v>
       </c>
       <c r="L8">
-        <v>11.0787465236016</v>
+        <v>7.082905789686928</v>
       </c>
       <c r="M8">
-        <v>14.31171296758119</v>
+        <v>9.971467971506181</v>
       </c>
       <c r="N8">
-        <v>19.4585604581819</v>
+        <v>12.67720059062801</v>
       </c>
       <c r="O8">
-        <v>22.22825580269688</v>
+        <v>14.21711599959723</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.92752164338284</v>
+        <v>14.77728002705817</v>
       </c>
       <c r="C9">
-        <v>12.5156849084152</v>
+        <v>8.431694591391841</v>
       </c>
       <c r="D9">
-        <v>5.369939286217389</v>
+        <v>5.626170204171337</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.64547636400982</v>
+        <v>18.04063875074135</v>
       </c>
       <c r="G9">
-        <v>29.34214915970795</v>
+        <v>22.17176188918386</v>
       </c>
       <c r="H9">
-        <v>14.46513231861802</v>
+        <v>8.713095956569932</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.361118691727416</v>
+        <v>11.88318397418106</v>
       </c>
       <c r="L9">
-        <v>11.06914510689481</v>
+        <v>7.361945444933619</v>
       </c>
       <c r="M9">
-        <v>14.41028204409235</v>
+        <v>10.81090137074909</v>
       </c>
       <c r="N9">
-        <v>19.32917038636144</v>
+        <v>12.24402179080963</v>
       </c>
       <c r="O9">
-        <v>22.09173042808853</v>
+        <v>14.25331294696915</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.34756248906867</v>
+        <v>16.09956957388277</v>
       </c>
       <c r="C10">
-        <v>12.4721512134092</v>
+        <v>8.304691447621583</v>
       </c>
       <c r="D10">
-        <v>5.490777326150647</v>
+        <v>5.94086849757624</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.63575609069876</v>
+        <v>18.61154378093597</v>
       </c>
       <c r="G10">
-        <v>29.30827615582562</v>
+        <v>22.83848308858417</v>
       </c>
       <c r="H10">
-        <v>14.40871083220812</v>
+        <v>8.664177877261785</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.7641566720346</v>
+        <v>12.72730403255202</v>
       </c>
       <c r="L10">
-        <v>11.07015520332941</v>
+        <v>7.578356282399564</v>
       </c>
       <c r="M10">
-        <v>14.49233439795743</v>
+        <v>11.4065960864206</v>
       </c>
       <c r="N10">
-        <v>19.24186577333615</v>
+        <v>11.93740924812609</v>
       </c>
       <c r="O10">
-        <v>22.0109792311403</v>
+        <v>14.33591618412858</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.53566293304448</v>
+        <v>16.66859403587373</v>
       </c>
       <c r="C11">
-        <v>12.45334835907614</v>
+        <v>8.248724084403573</v>
       </c>
       <c r="D11">
-        <v>5.544175230982387</v>
+        <v>6.078230938460597</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.63730607025513</v>
+        <v>18.88304225846534</v>
       </c>
       <c r="G11">
-        <v>29.30130239757334</v>
+        <v>23.16299200943322</v>
       </c>
       <c r="H11">
-        <v>14.38510174910166</v>
+        <v>8.647810274079122</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.940027921644349</v>
+        <v>13.09339255461735</v>
       </c>
       <c r="L11">
-        <v>11.072353866996</v>
+        <v>7.679024164502684</v>
       </c>
       <c r="M11">
-        <v>14.53166259542863</v>
+        <v>11.67194409619754</v>
       </c>
       <c r="N11">
-        <v>19.20381716104755</v>
+        <v>11.80020788713926</v>
       </c>
       <c r="O11">
-        <v>21.97849821437208</v>
+        <v>14.38665102121157</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.60639459954856</v>
+        <v>16.87944324293005</v>
       </c>
       <c r="C12">
-        <v>12.44637144936119</v>
+        <v>8.227787537220882</v>
       </c>
       <c r="D12">
-        <v>5.564161136684841</v>
+        <v>6.129394414262877</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.63874999142309</v>
+        <v>18.98750610948893</v>
       </c>
       <c r="G12">
-        <v>29.29987526782716</v>
+        <v>23.28891718869466</v>
       </c>
       <c r="H12">
-        <v>14.37645716739137</v>
+        <v>8.642500103229162</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.005518662145116</v>
+        <v>13.22942727806038</v>
       </c>
       <c r="L12">
-        <v>11.07343529971913</v>
+        <v>7.717442244030546</v>
       </c>
       <c r="M12">
-        <v>14.54683473218772</v>
+        <v>11.77153881235578</v>
       </c>
       <c r="N12">
-        <v>19.18964762485944</v>
+        <v>11.74856012885752</v>
       </c>
       <c r="O12">
-        <v>21.96681070704014</v>
+        <v>14.4078333486129</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.59118447395792</v>
+        <v>16.83423821107444</v>
       </c>
       <c r="C13">
-        <v>12.44786768679931</v>
+        <v>8.232285207396474</v>
       </c>
       <c r="D13">
-        <v>5.559867387366432</v>
+        <v>6.118413640864827</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.63840093735704</v>
+        <v>18.9649351130394</v>
       </c>
       <c r="G13">
-        <v>29.30012864548114</v>
+        <v>23.26166196493414</v>
       </c>
       <c r="H13">
-        <v>14.37830578576286</v>
+        <v>8.643603577917174</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.991463819787251</v>
+        <v>13.20024542196684</v>
       </c>
       <c r="L13">
-        <v>11.07319134743368</v>
+        <v>7.709155343966621</v>
       </c>
       <c r="M13">
-        <v>14.54355485368512</v>
+        <v>11.75012985058822</v>
       </c>
       <c r="N13">
-        <v>19.19268869023488</v>
+        <v>11.75967005753746</v>
       </c>
       <c r="O13">
-        <v>21.96930057536848</v>
+        <v>14.40318251841335</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.54149243102081</v>
+        <v>16.68603322252469</v>
       </c>
       <c r="C14">
-        <v>12.45277149550055</v>
+        <v>8.246996485579812</v>
       </c>
       <c r="D14">
-        <v>5.545824235879773</v>
+        <v>6.082457376667857</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.63740769965293</v>
+        <v>18.89160367724227</v>
       </c>
       <c r="G14">
-        <v>29.30116066198772</v>
+        <v>23.17329109838141</v>
       </c>
       <c r="H14">
-        <v>14.38438462960112</v>
+        <v>8.64735536554506</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.945438264169665</v>
+        <v>13.10463631019864</v>
       </c>
       <c r="L14">
-        <v>11.07243785742356</v>
+        <v>7.682179008253655</v>
       </c>
       <c r="M14">
-        <v>14.53290526656409</v>
+        <v>11.68015598544354</v>
       </c>
       <c r="N14">
-        <v>19.20264664773589</v>
+        <v>11.79595275310544</v>
       </c>
       <c r="O14">
-        <v>21.97752439970413</v>
+        <v>14.38835378183511</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.51098779061276</v>
+        <v>16.59465201318107</v>
       </c>
       <c r="C15">
-        <v>12.45579386723137</v>
+        <v>8.256040965818348</v>
       </c>
       <c r="D15">
-        <v>5.53719158191026</v>
+        <v>6.060321563320012</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.63691085405711</v>
+        <v>18.84690007181416</v>
       </c>
       <c r="G15">
-        <v>29.30195086431683</v>
+        <v>23.11955692987997</v>
       </c>
       <c r="H15">
-        <v>14.38814659609254</v>
+        <v>8.649770330086731</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.917101084685218</v>
+        <v>13.04573454884686</v>
       </c>
       <c r="L15">
-        <v>11.07200869118488</v>
+        <v>7.665693300524507</v>
       </c>
       <c r="M15">
-        <v>14.52641821499041</v>
+        <v>11.63717740197544</v>
       </c>
       <c r="N15">
-        <v>19.20877723306828</v>
+        <v>11.8182163703934</v>
       </c>
       <c r="O15">
-        <v>21.98264149642613</v>
+        <v>14.37952959448327</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.33520369887637</v>
+        <v>16.06173243450834</v>
       </c>
       <c r="C16">
-        <v>12.47340011250087</v>
+        <v>8.308385170926769</v>
       </c>
       <c r="D16">
-        <v>5.487255264682241</v>
+        <v>5.931773191419097</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.63577482712965</v>
+        <v>18.59403441985089</v>
       </c>
       <c r="G16">
-        <v>29.30890172689434</v>
+        <v>22.81770192265756</v>
       </c>
       <c r="H16">
-        <v>14.41029512510827</v>
+        <v>8.665369490233331</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.752509758779125</v>
+        <v>12.70301706603143</v>
       </c>
       <c r="L16">
-        <v>11.07004640848347</v>
+        <v>7.57182019820337</v>
       </c>
       <c r="M16">
-        <v>14.48980377717797</v>
+        <v>11.38913478063908</v>
       </c>
       <c r="N16">
-        <v>19.2443857902469</v>
+        <v>11.94641982083349</v>
       </c>
       <c r="O16">
-        <v>22.01318759208531</v>
+        <v>14.3328720474016</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.2265520961272</v>
+        <v>15.72651284970172</v>
       </c>
       <c r="C17">
-        <v>12.48445688667707</v>
+        <v>8.340957486377942</v>
       </c>
       <c r="D17">
-        <v>5.456212034360445</v>
+        <v>5.851413752759556</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.63660637126891</v>
+        <v>18.44190018234644</v>
       </c>
       <c r="G17">
-        <v>29.31532711268135</v>
+        <v>22.63795317606552</v>
       </c>
       <c r="H17">
-        <v>14.42440933812069</v>
+        <v>8.676475608263665</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.649599326167408</v>
+        <v>12.48816793193607</v>
       </c>
       <c r="L17">
-        <v>11.06928720823174</v>
+        <v>7.514785165053365</v>
       </c>
       <c r="M17">
-        <v>14.46784886678062</v>
+        <v>11.23546729502731</v>
       </c>
       <c r="N17">
-        <v>19.26665663711804</v>
+        <v>12.02563794612329</v>
       </c>
       <c r="O17">
-        <v>22.03301652153522</v>
+        <v>14.30767559989109</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.16378212427408</v>
+        <v>15.53064244079627</v>
       </c>
       <c r="C18">
-        <v>12.49091068998166</v>
+        <v>8.359862468570068</v>
       </c>
       <c r="D18">
-        <v>5.438209325011503</v>
+        <v>5.804648567410402</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.63764688945655</v>
+        <v>18.3555091471571</v>
       </c>
       <c r="G18">
-        <v>29.31981680457212</v>
+        <v>22.5365645144246</v>
       </c>
       <c r="H18">
-        <v>14.43272111684464</v>
+        <v>8.683414949015344</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.589706310664349</v>
+        <v>12.36290766566395</v>
       </c>
       <c r="L18">
-        <v>11.0690143170624</v>
+        <v>7.482190521661241</v>
       </c>
       <c r="M18">
-        <v>14.45540996848417</v>
+        <v>11.14655514559917</v>
       </c>
       <c r="N18">
-        <v>19.27962317667666</v>
+        <v>12.07141782080724</v>
       </c>
       <c r="O18">
-        <v>22.04482188005134</v>
+        <v>14.29441727187715</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.14248400568675</v>
+        <v>15.46379702723729</v>
       </c>
       <c r="C19">
-        <v>12.49311204085715</v>
+        <v>8.36629269562005</v>
       </c>
       <c r="D19">
-        <v>5.432088861186936</v>
+        <v>5.788721794850055</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.63809579915119</v>
+        <v>18.32645095814268</v>
       </c>
       <c r="G19">
-        <v>29.32147326759582</v>
+        <v>22.50257936734829</v>
       </c>
       <c r="H19">
-        <v>14.43556860837045</v>
+        <v>8.685857949801671</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.569308138055376</v>
+        <v>12.32020808435736</v>
       </c>
       <c r="L19">
-        <v>11.06895008615982</v>
+        <v>7.471191354764232</v>
       </c>
       <c r="M19">
-        <v>14.45123108322518</v>
+        <v>11.11636306445324</v>
       </c>
       <c r="N19">
-        <v>19.28404040963335</v>
+        <v>12.08695574585677</v>
       </c>
       <c r="O19">
-        <v>22.04888769606495</v>
+        <v>14.29013775193218</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.238147374186</v>
+        <v>15.76251402766161</v>
       </c>
       <c r="C20">
-        <v>12.48327012512799</v>
+        <v>8.337472507910178</v>
       </c>
       <c r="D20">
-        <v>5.459531965433571</v>
+        <v>5.860024662939061</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.63645967344871</v>
+        <v>18.45798028568215</v>
       </c>
       <c r="G20">
-        <v>29.31456093745904</v>
+        <v>22.65688098671517</v>
       </c>
       <c r="H20">
-        <v>14.42288681457639</v>
+        <v>8.675235979119526</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.660627190653111</v>
+        <v>12.51121352309829</v>
       </c>
       <c r="L20">
-        <v>11.06935108432109</v>
+        <v>7.520835028304846</v>
       </c>
       <c r="M20">
-        <v>14.47016650571878</v>
+        <v>11.25188055706722</v>
       </c>
       <c r="N20">
-        <v>19.2642696324359</v>
+        <v>12.01718285989543</v>
       </c>
       <c r="O20">
-        <v>22.03086426461773</v>
+        <v>14.31022951692255</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.55610223365534</v>
+        <v>16.72968986581963</v>
       </c>
       <c r="C21">
-        <v>12.45132724298861</v>
+        <v>8.242668471449408</v>
       </c>
       <c r="D21">
-        <v>5.549955487266259</v>
+        <v>6.093041882623695</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.63767619655907</v>
+        <v>18.91309837455131</v>
       </c>
       <c r="G21">
-        <v>29.30082459368679</v>
+        <v>23.19916536400694</v>
       </c>
       <c r="H21">
-        <v>14.38259110295087</v>
+        <v>8.646228939458803</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.958987398345343</v>
+        <v>13.13278957563941</v>
       </c>
       <c r="L21">
-        <v>11.07265243260433</v>
+        <v>7.690094715271881</v>
       </c>
       <c r="M21">
-        <v>14.53602579505739</v>
+        <v>11.70073362863025</v>
       </c>
       <c r="N21">
-        <v>19.19971528549216</v>
+        <v>11.78528746859497</v>
       </c>
       <c r="O21">
-        <v>21.97509223858161</v>
+        <v>14.39265526329504</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.76097293564842</v>
+        <v>17.33484081032746</v>
       </c>
       <c r="C22">
-        <v>12.43128584767359</v>
+        <v>8.182205740246244</v>
       </c>
       <c r="D22">
-        <v>5.607680617634469</v>
+        <v>6.240355235253086</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.64346513724238</v>
+        <v>19.22016028463627</v>
       </c>
       <c r="G22">
-        <v>29.29892103960461</v>
+        <v>23.5712926283862</v>
       </c>
       <c r="H22">
-        <v>14.35797880797225</v>
+        <v>8.632466711154734</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.147512811363105</v>
+        <v>13.523895372746</v>
       </c>
       <c r="L22">
-        <v>11.0762598582903</v>
+        <v>7.80243910582272</v>
       </c>
       <c r="M22">
-        <v>14.58069303372177</v>
+        <v>11.98888808861892</v>
       </c>
       <c r="N22">
-        <v>19.15891584224621</v>
+        <v>11.6355121878596</v>
       </c>
       <c r="O22">
-        <v>21.94221152115297</v>
+        <v>14.45804307021392</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.65191962222375</v>
+        <v>17.01431183074902</v>
       </c>
       <c r="C23">
-        <v>12.44190609901658</v>
+        <v>8.214339752011002</v>
       </c>
       <c r="D23">
-        <v>5.576999914242315</v>
+        <v>6.162192251352256</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.63991926995623</v>
+        <v>19.05541008219836</v>
       </c>
       <c r="G23">
-        <v>29.29928974052822</v>
+        <v>23.37106603298064</v>
       </c>
       <c r="H23">
-        <v>14.37095723159951</v>
+        <v>8.639322384642698</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.047495237862526</v>
+        <v>13.31654397295681</v>
       </c>
       <c r="L23">
-        <v>11.07420229291026</v>
+        <v>7.742328215621799</v>
       </c>
       <c r="M23">
-        <v>14.55670755406507</v>
+        <v>11.83559261019795</v>
       </c>
       <c r="N23">
-        <v>19.18056437170883</v>
+        <v>11.71529398192261</v>
       </c>
       <c r="O23">
-        <v>21.95943373982329</v>
+        <v>14.42206539832484</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.2329060927599</v>
+        <v>15.74624770439878</v>
       </c>
       <c r="C24">
-        <v>12.48380635747327</v>
+        <v>8.339047509779771</v>
       </c>
       <c r="D24">
-        <v>5.458031508415474</v>
+        <v>5.856133430268568</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.6365242434231</v>
+        <v>18.45070712572463</v>
       </c>
       <c r="G24">
-        <v>29.31490484695641</v>
+        <v>22.64831764503454</v>
       </c>
       <c r="H24">
-        <v>14.42357453278864</v>
+        <v>8.675794692110072</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.655643759489994</v>
+        <v>12.5008000314136</v>
       </c>
       <c r="L24">
-        <v>11.06932169630894</v>
+        <v>7.518099274325257</v>
       </c>
       <c r="M24">
-        <v>14.46911812964256</v>
+        <v>11.24446188042602</v>
       </c>
       <c r="N24">
-        <v>19.26534829026863</v>
+        <v>12.02100466678274</v>
       </c>
       <c r="O24">
-        <v>22.03183603710476</v>
+        <v>14.30907107375639</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.7706833836422</v>
+        <v>14.26123349407413</v>
       </c>
       <c r="C25">
-        <v>12.53260810196843</v>
+        <v>8.48008571822837</v>
       </c>
       <c r="D25">
-        <v>5.324105480877705</v>
+        <v>5.505289055289941</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.65435879514571</v>
+        <v>17.84111223244038</v>
       </c>
       <c r="G25">
-        <v>29.36209224647967</v>
+        <v>21.94504585307402</v>
       </c>
       <c r="H25">
-        <v>14.48773546068671</v>
+        <v>8.736060820411703</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.206315534149374</v>
+        <v>11.55663329005503</v>
       </c>
       <c r="L25">
-        <v>11.07032263498115</v>
+        <v>7.284368059072699</v>
       </c>
       <c r="M25">
-        <v>14.38189479693248</v>
+        <v>10.58710172210345</v>
       </c>
       <c r="N25">
-        <v>19.36280597080369</v>
+        <v>12.35908418868811</v>
       </c>
       <c r="O25">
-        <v>22.12523341583143</v>
+        <v>14.2340274559071</v>
       </c>
     </row>
   </sheetData>
